--- a/サンプルプロジェクト/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
+++ b/サンプルプロジェクト/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653DF9C0-CFC5-422F-B370-2530612B47FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="16380" windowHeight="8175" tabRatio="489"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="489" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="3" r:id="rId1"/>
@@ -22,7 +23,15 @@
     <definedName name="Excel_BuiltIn_Sheet_Title_2">"testSelectUserGroups"</definedName>
     <definedName name="データ型">[1]データ!$A$2:$A$22</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -185,16 +194,7 @@
     <t>client_id</t>
   </si>
   <si>
-    <t>project_manager</t>
-  </si>
-  <si>
-    <t>project_leader</t>
-  </si>
-  <si>
     <t>note</t>
-  </si>
-  <si>
-    <t>sales</t>
   </si>
   <si>
     <t>version_no</t>
@@ -914,12 +914,43 @@
     <t>2019/06/01</t>
     <phoneticPr fontId="17"/>
   </si>
+  <si>
+    <t>sales_amount</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>pm_kanji_name</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ｌ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>_kanji_name</t>
+    </r>
+    <phoneticPr fontId="17"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="8"/>
       <name val="メイリオ"/>
@@ -1029,6 +1060,12 @@
       <sz val="6"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1327,15 +1364,18 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準_testMenus00102Normal" xfId="1"/>
-    <cellStyle name="標準_UserSearchActionRequestTest" xfId="2"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_testMenus00102Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_UserSearchActionRequestTest" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1473,7 +1513,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1515,7 +1555,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1548,9 +1588,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1583,6 +1640,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1758,11 +1832,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
@@ -1801,7 +1875,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1813,11 +1887,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
@@ -1909,13 +1983,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1935,22 +2009,22 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>16</v>
@@ -1964,22 +2038,22 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>16</v>
@@ -2031,7 +2105,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2040,7 +2114,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -2073,112 +2147,112 @@
         <v>34</v>
       </c>
       <c r="I11" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="L11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.25">
       <c r="A12" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="J12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="K12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>53</v>
-      </c>
       <c r="L12" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="14.25">
       <c r="A13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="H13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>57</v>
-      </c>
       <c r="L13" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2212,101 +2286,101 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="E21" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="F21" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="G21" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="H21" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="I21" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="J21" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="K21" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="L21" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="M21" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="N21" s="33" t="s">
         <v>107</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="32"/>
       <c r="B22" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="29.25">
       <c r="A24" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -2326,7 +2400,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -2335,7 +2409,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -2368,156 +2442,156 @@
         <v>34</v>
       </c>
       <c r="I27" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="L27" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M27" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="14.25">
       <c r="A28" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I28" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="M28" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="14.25">
       <c r="A29" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B29" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="J29" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="K29" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="L29" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="L29" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="M29" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.25">
       <c r="A30" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="H30" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>57</v>
-      </c>
       <c r="L30" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M30" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -2526,7 +2600,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -2551,143 +2625,143 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="E38" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="F38" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="G38" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="H38" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="I38" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="J38" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="K38" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="L38" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="J38" s="33" t="s">
+      <c r="M38" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="N38" s="33" t="s">
         <v>107</v>
-      </c>
-      <c r="L38" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="M38" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="N38" s="33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="31"/>
       <c r="B39" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I39" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L39" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M39" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N39" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="32"/>
       <c r="B40" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L40" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N40" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="29.25">
       <c r="A42" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2707,7 +2781,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -2716,7 +2790,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -2749,283 +2823,283 @@
         <v>34</v>
       </c>
       <c r="I45" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K45" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="L45" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M45" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M45" s="13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.25">
       <c r="A46" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I46" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N46" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="J46" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="K46" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="L46" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="M46" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="N46" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.25">
       <c r="A47" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B47" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="J47" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="K47" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="L47" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N47" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="I47" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J47" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="K47" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="L47" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="M47" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25">
       <c r="A48" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="H48" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J48" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="K48" s="28" t="s">
-        <v>57</v>
-      </c>
       <c r="L48" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M48" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="14.25">
       <c r="A49" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B49" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="J49" s="28" t="s">
-        <v>47</v>
-      </c>
       <c r="K49" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M49" s="29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="14.25">
       <c r="A50" s="36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I50" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="J50" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K50" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="L50" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="J50" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="K50" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="L50" s="36" t="s">
-        <v>147</v>
-      </c>
       <c r="M50" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="14.25">
       <c r="A51" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D51" s="28" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G51" s="39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I51" s="28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J51" s="28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K51" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L51" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M51" s="29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3033,7 +3107,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -3043,7 +3117,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -3068,267 +3142,267 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="E58" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="F58" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="G58" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E58" s="33" t="s">
+      <c r="H58" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="I58" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="G58" s="33" t="s">
+      <c r="J58" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H58" s="33" t="s">
+      <c r="K58" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="I58" s="33" t="s">
+      <c r="L58" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="J58" s="33" t="s">
+      <c r="M58" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="K58" s="33" t="s">
+      <c r="N58" s="33" t="s">
         <v>107</v>
-      </c>
-      <c r="L58" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="M58" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="N58" s="33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="31"/>
       <c r="B59" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J59" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K59" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L59" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M59" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N59" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="14.25">
       <c r="A60" s="31"/>
       <c r="B60" s="36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E60" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J60" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K60" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="L60" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="M60" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="K60" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="L60" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="M60" s="36" t="s">
-        <v>147</v>
-      </c>
       <c r="N60" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O60" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="31"/>
       <c r="B61" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J61" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="K61" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="L61" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I61" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J61" s="34" t="s">
+      <c r="M61" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="N61" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="K61" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="L61" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="M61" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="N61" s="19" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="31"/>
       <c r="B62" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J62" s="34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K62" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L62" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N62" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="32"/>
       <c r="B63" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C63" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J63" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I63" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J63" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="K63" s="34" t="s">
-        <v>47</v>
-      </c>
       <c r="L63" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M63" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N63" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/サンプルプロジェクト/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
+++ b/サンプルプロジェクト/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653DF9C0-CFC5-422F-B370-2530612B47FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51796E3-020C-4858-8E6B-653EAF758C9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="489" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -923,34 +923,14 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ｌ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>_kanji_name</t>
-    </r>
-    <phoneticPr fontId="17"/>
+    <t>pl_kanji_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="8"/>
       <name val="メイリオ"/>
@@ -1060,12 +1040,6 @@
       <sz val="6"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1891,7 +1865,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>

--- a/サンプルプロジェクト/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
+++ b/サンプルプロジェクト/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51796E3-020C-4858-8E6B-653EAF758C9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="16380" windowHeight="8175" tabRatio="489"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="489" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="3" r:id="rId1"/>
@@ -22,7 +23,15 @@
     <definedName name="Excel_BuiltIn_Sheet_Title_2">"testSelectUserGroups"</definedName>
     <definedName name="データ型">[1]データ!$A$2:$A$22</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -185,16 +194,7 @@
     <t>client_id</t>
   </si>
   <si>
-    <t>project_manager</t>
-  </si>
-  <si>
-    <t>project_leader</t>
-  </si>
-  <si>
     <t>note</t>
-  </si>
-  <si>
-    <t>sales</t>
   </si>
   <si>
     <t>version_no</t>
@@ -914,11 +914,22 @@
     <t>2019/06/01</t>
     <phoneticPr fontId="17"/>
   </si>
+  <si>
+    <t>sales_amount</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>pm_kanji_name</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>pl_kanji_name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="8"/>
@@ -1327,15 +1338,18 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準_testMenus00102Normal" xfId="1"/>
-    <cellStyle name="標準_UserSearchActionRequestTest" xfId="2"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_testMenus00102Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_UserSearchActionRequestTest" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1473,7 +1487,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1515,7 +1529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1548,9 +1562,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1583,6 +1614,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1758,11 +1806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
@@ -1801,7 +1849,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1813,11 +1861,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
@@ -1909,13 +1959,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1935,22 +1985,22 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>16</v>
@@ -1964,22 +2014,22 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>16</v>
@@ -2031,7 +2081,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2040,7 +2090,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -2073,112 +2123,112 @@
         <v>34</v>
       </c>
       <c r="I11" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="L11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.25">
       <c r="A12" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="J12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="K12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>53</v>
-      </c>
       <c r="L12" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="14.25">
       <c r="A13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="H13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>57</v>
-      </c>
       <c r="L13" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2212,101 +2262,101 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="E21" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="F21" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="G21" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="H21" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="I21" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="J21" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="K21" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="L21" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="M21" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="N21" s="33" t="s">
         <v>107</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="32"/>
       <c r="B22" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="29.25">
       <c r="A24" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -2326,7 +2376,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -2335,7 +2385,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -2368,156 +2418,156 @@
         <v>34</v>
       </c>
       <c r="I27" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="L27" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M27" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="14.25">
       <c r="A28" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I28" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="M28" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="14.25">
       <c r="A29" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B29" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="J29" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="K29" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="L29" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="L29" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="M29" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.25">
       <c r="A30" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="H30" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>57</v>
-      </c>
       <c r="L30" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M30" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -2526,7 +2576,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -2551,143 +2601,143 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="E38" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="F38" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="G38" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="H38" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="I38" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="J38" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="K38" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="L38" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="J38" s="33" t="s">
+      <c r="M38" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="N38" s="33" t="s">
         <v>107</v>
-      </c>
-      <c r="L38" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="M38" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="N38" s="33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="31"/>
       <c r="B39" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I39" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L39" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M39" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N39" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="32"/>
       <c r="B40" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L40" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N40" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="29.25">
       <c r="A42" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2707,7 +2757,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -2716,7 +2766,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -2749,283 +2799,283 @@
         <v>34</v>
       </c>
       <c r="I45" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K45" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="L45" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M45" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M45" s="13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.25">
       <c r="A46" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I46" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N46" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="J46" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="K46" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="L46" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="M46" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="N46" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.25">
       <c r="A47" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B47" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="J47" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="K47" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="L47" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N47" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="I47" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J47" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="K47" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="L47" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="M47" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25">
       <c r="A48" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="H48" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J48" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="K48" s="28" t="s">
-        <v>57</v>
-      </c>
       <c r="L48" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M48" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="14.25">
       <c r="A49" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B49" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="J49" s="28" t="s">
-        <v>47</v>
-      </c>
       <c r="K49" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M49" s="29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="14.25">
       <c r="A50" s="36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I50" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="J50" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K50" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="L50" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="J50" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="K50" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="L50" s="36" t="s">
-        <v>147</v>
-      </c>
       <c r="M50" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="14.25">
       <c r="A51" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D51" s="28" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G51" s="39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I51" s="28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J51" s="28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K51" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L51" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M51" s="29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3033,7 +3083,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -3043,7 +3093,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -3068,267 +3118,267 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="E58" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="F58" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="G58" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E58" s="33" t="s">
+      <c r="H58" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="I58" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="G58" s="33" t="s">
+      <c r="J58" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H58" s="33" t="s">
+      <c r="K58" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="I58" s="33" t="s">
+      <c r="L58" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="J58" s="33" t="s">
+      <c r="M58" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="K58" s="33" t="s">
+      <c r="N58" s="33" t="s">
         <v>107</v>
-      </c>
-      <c r="L58" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="M58" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="N58" s="33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="31"/>
       <c r="B59" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J59" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K59" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L59" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M59" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N59" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="14.25">
       <c r="A60" s="31"/>
       <c r="B60" s="36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E60" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J60" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K60" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="L60" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="M60" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="K60" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="L60" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="M60" s="36" t="s">
-        <v>147</v>
-      </c>
       <c r="N60" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O60" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="31"/>
       <c r="B61" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J61" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="K61" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="L61" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I61" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J61" s="34" t="s">
+      <c r="M61" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="N61" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="K61" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="L61" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="M61" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="N61" s="19" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="31"/>
       <c r="B62" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J62" s="34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K62" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L62" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N62" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="32"/>
       <c r="B63" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C63" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J63" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I63" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J63" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="K63" s="34" t="s">
-        <v>47</v>
-      </c>
       <c r="L63" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M63" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N63" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/サンプルプロジェクト/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
+++ b/サンプルプロジェクト/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D31EB7-1B3D-41F4-B157-2EF62CAA543F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0B81BE-8FDD-458A-8C68-0A7281FF3330}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="489" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="489" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="3" r:id="rId1"/>
@@ -2165,9 +2165,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:F46"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
@@ -3793,7 +3791,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
@@ -6128,6 +6126,9 @@
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
       <c r="K114" s="35"/>
     </row>
     <row r="115" spans="1:14" ht="11.25" customHeight="1">
@@ -6138,6 +6139,9 @@
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
       <c r="K115" s="35"/>
     </row>
     <row r="116" spans="1:14" ht="11.25" customHeight="1">
@@ -6148,6 +6152,9 @@
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
       <c r="K116" s="35"/>
     </row>
     <row r="117" spans="1:14">
@@ -6158,6 +6165,9 @@
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="13" t="s">

--- a/サンプルプロジェクト/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
+++ b/サンプルプロジェクト/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0B81BE-8FDD-458A-8C68-0A7281FF3330}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE260D0A-A6E7-47A1-8BA2-81773F525B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="489" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="489" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="293">
   <si>
     <t>no</t>
   </si>
@@ -454,17 +457,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -478,15 +473,6 @@
   </si>
   <si>
     <t>対象データ0件。プロジェクト終了日付=業務日付-1(プロジェクト終了日付が業務日付の一日前）</t>
-  </si>
-  <si>
-    <t>対象データ複数件。プロジェクト開始日付が異なる</t>
-  </si>
-  <si>
-    <t>対象データ複数件。プロジェクト開始日付は同じだが、プロジェクト終了日付が異なる</t>
-  </si>
-  <si>
-    <t>対象データ1件。プロジェクト開始日付とプロジェクト終了日付は同じだが、プロジェクト名が異なる</t>
   </si>
   <si>
     <t>対象データ1件。業務日付指定</t>
@@ -1078,41 +1064,6 @@
   </si>
   <si>
     <t>い</t>
-  </si>
-  <si>
-    <t>//8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>// No.5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="24"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="24"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>No.7</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>// No.8</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>unit-test.xml</t>
@@ -1287,12 +1238,30 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>・対象データ複数件。プロジェクト開始日付が異なる
+・対象データ複数件。プロジェクト開始日付は同じだが、プロジェクト終了日付が異なる
+・対象データ1件。プロジェクト開始日付とプロジェクト終了日付は同じだが、プロジェクト名が異なる</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>//6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>// No.5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>// No.6</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="8"/>
       <name val="メイリオ"/>
@@ -1409,21 +1378,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2165,7 +2119,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
@@ -2204,7 +2158,7 @@
     </row>
     <row r="3" spans="1:13" ht="14.25">
       <c r="A3" s="15" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="37"/>
@@ -2224,10 +2178,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="36"/>
@@ -2245,10 +2199,10 @@
         <v>40</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="36"/>
@@ -2266,10 +2220,10 @@
         <v>42</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="36"/>
@@ -2287,10 +2241,10 @@
         <v>41</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="36"/>
@@ -2308,10 +2262,10 @@
         <v>43</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="36"/>
@@ -2329,10 +2283,10 @@
         <v>45</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="36"/>
@@ -2350,10 +2304,10 @@
         <v>46</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="36"/>
@@ -2368,13 +2322,13 @@
     </row>
     <row r="11" spans="1:13" ht="14.25">
       <c r="A11" s="29" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="36"/>
@@ -2389,13 +2343,13 @@
     </row>
     <row r="12" spans="1:13" ht="14.25">
       <c r="A12" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="36"/>
@@ -2410,13 +2364,13 @@
     </row>
     <row r="13" spans="1:13" ht="14.25">
       <c r="A13" s="29" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="36"/>
@@ -2434,10 +2388,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="36"/>
@@ -2452,13 +2406,13 @@
     </row>
     <row r="15" spans="1:13" ht="14.25">
       <c r="A15" s="29" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="36"/>
@@ -2473,13 +2427,13 @@
     </row>
     <row r="16" spans="1:13" ht="14.25">
       <c r="A16" s="29" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="36"/>
@@ -2494,13 +2448,13 @@
     </row>
     <row r="17" spans="1:13" ht="14.25">
       <c r="A17" s="29" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="36"/>
@@ -2515,13 +2469,13 @@
     </row>
     <row r="18" spans="1:13" ht="14.25">
       <c r="A18" s="29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="36"/>
@@ -2536,13 +2490,13 @@
     </row>
     <row r="19" spans="1:13" ht="14.25">
       <c r="A19" s="29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="36"/>
@@ -2557,13 +2511,13 @@
     </row>
     <row r="20" spans="1:13" ht="14.25">
       <c r="A20" s="29" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="36"/>
@@ -2578,13 +2532,13 @@
     </row>
     <row r="21" spans="1:13" ht="14.25">
       <c r="A21" s="29" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="36"/>
@@ -2599,13 +2553,13 @@
     </row>
     <row r="22" spans="1:13" ht="14.25">
       <c r="A22" s="29" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="36"/>
@@ -2620,13 +2574,13 @@
     </row>
     <row r="23" spans="1:13" ht="14.25">
       <c r="A23" s="29" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D23" s="37"/>
       <c r="E23" s="36"/>
@@ -2641,13 +2595,13 @@
     </row>
     <row r="24" spans="1:13" ht="14.25">
       <c r="A24" s="29" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B24" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>259</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="D24" s="37"/>
       <c r="E24" s="36"/>
@@ -2662,13 +2616,13 @@
     </row>
     <row r="25" spans="1:13" ht="14.25">
       <c r="A25" s="29" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D25" s="37"/>
       <c r="E25" s="36"/>
@@ -2683,13 +2637,13 @@
     </row>
     <row r="26" spans="1:13" ht="14.25">
       <c r="A26" s="29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="36"/>
@@ -2704,13 +2658,13 @@
     </row>
     <row r="27" spans="1:13" ht="14.25">
       <c r="A27" s="29" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D27" s="37"/>
       <c r="E27" s="36"/>
@@ -2725,13 +2679,13 @@
     </row>
     <row r="28" spans="1:13" ht="14.25">
       <c r="A28" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="36"/>
@@ -2746,7 +2700,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="15" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -2799,7 +2753,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>15</v>
@@ -2808,10 +2762,10 @@
         <v>15</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>40</v>
@@ -2820,16 +2774,16 @@
         <v>40</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L32" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M32" s="29" t="s">
         <v>40</v>
@@ -2840,19 +2794,19 @@
         <v>42</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>42</v>
@@ -2861,19 +2815,19 @@
         <v>42</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L33" s="29" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M33" s="29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25">
@@ -2881,7 +2835,7 @@
         <v>41</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>37</v>
@@ -2890,10 +2844,10 @@
         <v>38</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>41</v>
@@ -2902,16 +2856,16 @@
         <v>41</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L34" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M34" s="29" t="s">
         <v>40</v>
@@ -2919,10 +2873,10 @@
     </row>
     <row r="35" spans="1:13" ht="14.25">
       <c r="A35" s="29" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>15</v>
@@ -2931,10 +2885,10 @@
         <v>15</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>43</v>
@@ -2943,16 +2897,16 @@
         <v>43</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L35" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M35" s="29" t="s">
         <v>40</v>
@@ -2963,7 +2917,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>39</v>
@@ -2972,10 +2926,10 @@
         <v>39</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>45</v>
@@ -2984,16 +2938,16 @@
         <v>45</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L36" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M36" s="29" t="s">
         <v>40</v>
@@ -3004,19 +2958,19 @@
         <v>46</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>46</v>
@@ -3025,16 +2979,16 @@
         <v>46</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L37" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M37" s="29" t="s">
         <v>40</v>
@@ -3042,10 +2996,10 @@
     </row>
     <row r="38" spans="1:13" ht="14.25">
       <c r="A38" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>37</v>
@@ -3054,28 +3008,28 @@
         <v>38</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J38" s="28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L38" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M38" s="29" t="s">
         <v>40</v>
@@ -3083,10 +3037,10 @@
     </row>
     <row r="39" spans="1:13" ht="14.25">
       <c r="A39" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>37</v>
@@ -3095,28 +3049,28 @@
         <v>38</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J39" s="28" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K39" s="28" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L39" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M39" s="29" t="s">
         <v>40</v>
@@ -3124,10 +3078,10 @@
     </row>
     <row r="40" spans="1:13" ht="14.25">
       <c r="A40" s="29" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>37</v>
@@ -3136,28 +3090,28 @@
         <v>38</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J40" s="28" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L40" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M40" s="29" t="s">
         <v>40</v>
@@ -3168,7 +3122,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C41" s="28" t="s">
         <v>37</v>
@@ -3177,10 +3131,10 @@
         <v>38</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>44</v>
@@ -3189,16 +3143,16 @@
         <v>44</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J41" s="28" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L41" s="29" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M41" s="29" t="s">
         <v>40</v>
@@ -3206,10 +3160,10 @@
     </row>
     <row r="42" spans="1:13" ht="14.25">
       <c r="A42" s="29" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>37</v>
@@ -3218,39 +3172,39 @@
         <v>38</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G42" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="J42" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="L42" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="M42" s="29" t="s">
         <v>152</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="J42" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="K42" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="L42" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="M42" s="29" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25">
       <c r="A43" s="29" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>37</v>
@@ -3259,28 +3213,28 @@
         <v>38</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J43" s="28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K43" s="28" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L43" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M43" s="29" t="s">
         <v>40</v>
@@ -3288,10 +3242,10 @@
     </row>
     <row r="44" spans="1:13" ht="14.25">
       <c r="A44" s="29" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>42</v>
@@ -3300,28 +3254,28 @@
         <v>38</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J44" s="28" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L44" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M44" s="29" t="s">
         <v>40</v>
@@ -3329,10 +3283,10 @@
     </row>
     <row r="45" spans="1:13" ht="14.25">
       <c r="A45" s="29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>37</v>
@@ -3341,28 +3295,28 @@
         <v>41</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="J45" s="28" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L45" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M45" s="29" t="s">
         <v>40</v>
@@ -3370,10 +3324,10 @@
     </row>
     <row r="46" spans="1:13" ht="14.25">
       <c r="A46" s="29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>37</v>
@@ -3382,28 +3336,28 @@
         <v>38</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J46" s="28" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L46" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M46" s="29" t="s">
         <v>40</v>
@@ -3411,10 +3365,10 @@
     </row>
     <row r="47" spans="1:13" ht="14.25">
       <c r="A47" s="29" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>37</v>
@@ -3423,28 +3377,28 @@
         <v>38</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J47" s="28" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L47" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M47" s="29" t="s">
         <v>40</v>
@@ -3452,10 +3406,10 @@
     </row>
     <row r="48" spans="1:13" ht="14.25">
       <c r="A48" s="29" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>37</v>
@@ -3464,28 +3418,28 @@
         <v>38</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J48" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L48" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M48" s="29" t="s">
         <v>40</v>
@@ -3493,10 +3447,10 @@
     </row>
     <row r="49" spans="1:13" ht="14.25">
       <c r="A49" s="29" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>37</v>
@@ -3505,28 +3459,28 @@
         <v>38</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J49" s="28" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L49" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M49" s="29" t="s">
         <v>40</v>
@@ -3534,10 +3488,10 @@
     </row>
     <row r="50" spans="1:13" ht="14.25">
       <c r="A50" s="29" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>37</v>
@@ -3546,28 +3500,28 @@
         <v>38</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J50" s="28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K50" s="28" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L50" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M50" s="29" t="s">
         <v>40</v>
@@ -3575,10 +3529,10 @@
     </row>
     <row r="51" spans="1:13" ht="14.25">
       <c r="A51" s="29" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>37</v>
@@ -3587,28 +3541,28 @@
         <v>38</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G51" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="J51" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="K51" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="H51" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I51" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J51" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="K51" s="28" t="s">
-        <v>201</v>
-      </c>
       <c r="L51" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M51" s="29" t="s">
         <v>46</v>
@@ -3616,10 +3570,10 @@
     </row>
     <row r="52" spans="1:13" ht="14.25">
       <c r="A52" s="29" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>37</v>
@@ -3628,28 +3582,28 @@
         <v>38</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G52" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="K52" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="H52" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="I52" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="J52" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="K52" s="28" t="s">
-        <v>207</v>
-      </c>
       <c r="L52" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M52" s="29" t="s">
         <v>40</v>
@@ -3657,10 +3611,10 @@
     </row>
     <row r="53" spans="1:13" ht="14.25">
       <c r="A53" s="29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>37</v>
@@ -3669,28 +3623,28 @@
         <v>38</v>
       </c>
       <c r="E53" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J53" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K53" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L53" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="J53" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="K53" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="L53" s="29" t="s">
-        <v>107</v>
       </c>
       <c r="M53" s="29" t="s">
         <v>40</v>
@@ -3698,10 +3652,10 @@
     </row>
     <row r="54" spans="1:13" ht="14.25">
       <c r="A54" s="29" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>37</v>
@@ -3710,28 +3664,28 @@
         <v>38</v>
       </c>
       <c r="E54" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J54" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="K54" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="L54" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="G54" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="J54" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="K54" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="L54" s="29" t="s">
-        <v>107</v>
       </c>
       <c r="M54" s="29" t="s">
         <v>40</v>
@@ -3739,10 +3693,10 @@
     </row>
     <row r="55" spans="1:13" ht="14.25">
       <c r="A55" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>37</v>
@@ -3751,28 +3705,28 @@
         <v>38</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G55" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J55" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="K55" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="H55" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="J55" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="K55" s="28" t="s">
-        <v>223</v>
-      </c>
       <c r="L55" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M55" s="29" t="s">
         <v>40</v>
@@ -3789,9 +3743,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P123"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
@@ -3883,7 +3837,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
@@ -3912,7 +3866,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
@@ -3941,7 +3895,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
@@ -3970,7 +3924,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>10</v>
@@ -3994,12 +3948,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="10" customFormat="1">
+    <row r="8" spans="1:16" s="10" customFormat="1" ht="52.5">
       <c r="A8" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>10</v>
@@ -4023,27 +3977,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="21">
+    <row r="9" spans="1:16">
       <c r="A9" s="6" t="s">
-        <v>89</v>
+        <v>290</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>25</v>
@@ -4051,111 +4005,91 @@
       <c r="K9" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="21">
-      <c r="A10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" ht="12.75">
-      <c r="A12" s="27"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" ht="29.25">
-      <c r="A13" s="17" t="s">
+      <c r="L9" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="20" customFormat="1" ht="12.75">
+      <c r="A10" s="27"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" ht="29.25">
+      <c r="A11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.25">
+      <c r="A12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.25">
+      <c r="A13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:16" ht="14.25">
-      <c r="A14" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="15"/>
+      <c r="A14" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>219</v>
+      </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="36"/>
@@ -4168,239 +4102,239 @@
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:16" ht="14.25">
-      <c r="A15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-    </row>
-    <row r="16" spans="1:16" ht="14.25">
-      <c r="A16" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+    <row r="17" spans="1:16">
+      <c r="A17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="A19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="A20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="13" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>20</v>
+      <c r="A22" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>69</v>
+      <c r="A23" s="32"/>
+      <c r="B23" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="N24" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="L25" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="M25" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="N25" s="33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="32"/>
-      <c r="B26" s="19" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="K26" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="L26" s="34" t="s">
+      <c r="M24" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="29.25">
+      <c r="A26" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.25">
+      <c r="A27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.25">
+      <c r="A28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.25">
+      <c r="A29" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="M26" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N26" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="29.25">
-      <c r="A28" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-    </row>
-    <row r="29" spans="1:16" ht="14.25">
-      <c r="A29" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="15"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
       <c r="E29" s="36"/>
@@ -4413,239 +4347,239 @@
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
     </row>
-    <row r="30" spans="1:16" ht="14.25">
-      <c r="A30" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-    </row>
-    <row r="31" spans="1:16" ht="14.25">
-      <c r="A31" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
+    <row r="32" spans="1:16">
+      <c r="A32" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="A34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="A35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="13" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>20</v>
+      <c r="A37" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N37" s="33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>69</v>
+      <c r="A38" s="31"/>
+      <c r="B38" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L38" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M38" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="N38" s="33" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I39" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J39" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="K39" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="L39" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="M39" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="N39" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="31"/>
-      <c r="B40" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="J40" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="L40" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="M40" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="N40" s="33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="32"/>
-      <c r="B41" s="19" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="L39" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="J41" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="K41" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="L41" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N41" s="19" t="s">
+      <c r="M39" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N39" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="29.25">
-      <c r="A43" s="17" t="s">
+    <row r="41" spans="1:16" ht="29.25">
+      <c r="A41" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+    </row>
+    <row r="42" spans="1:16" ht="14.25">
+      <c r="A42" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+    </row>
+    <row r="43" spans="1:16" ht="14.25">
+      <c r="A43" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
     </row>
     <row r="44" spans="1:16" ht="14.25">
-      <c r="A44" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="15"/>
+      <c r="A44" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>220</v>
+      </c>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
       <c r="E44" s="36"/>
@@ -4658,201 +4592,201 @@
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
     </row>
-    <row r="45" spans="1:16" ht="14.25">
-      <c r="A45" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-    </row>
-    <row r="46" spans="1:16" ht="14.25">
-      <c r="A46" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
+    <row r="46" spans="1:16">
+      <c r="B46" s="35"/>
+    </row>
+    <row r="47" spans="1:16" ht="11.25" customHeight="1">
+      <c r="A47" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="K47" s="35"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="B48" s="35"/>
-    </row>
-    <row r="49" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A49" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="K49" s="35"/>
+      <c r="A48" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
+      <c r="A50" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="13" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>20</v>
+      <c r="A52" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K52" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L52" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M52" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N52" s="33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G54" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H54" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I54" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J54" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="K54" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="L54" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="M54" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="N54" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="32"/>
-      <c r="B55" s="33" t="s">
+      <c r="A53" s="32"/>
+      <c r="B53" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C53" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D53" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="33" t="s">
+      <c r="E53" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F53" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="G53" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H55" s="33" t="s">
+      <c r="H53" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I55" s="33" t="s">
+      <c r="I53" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="J55" s="33" t="s">
+      <c r="J53" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="K55" s="33" t="s">
+      <c r="K53" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="L55" s="33" t="s">
+      <c r="L53" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="M55" s="33" t="s">
+      <c r="M53" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="N55" s="33" t="s">
+      <c r="N53" s="33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="29.25">
-      <c r="A59" s="17" t="s">
+    <row r="57" spans="1:16" ht="29.25">
+      <c r="A57" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+    </row>
+    <row r="58" spans="1:16" ht="14.25">
+      <c r="A58" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+    </row>
+    <row r="59" spans="1:16" ht="14.25">
+      <c r="A59" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
     </row>
     <row r="60" spans="1:16" ht="14.25">
-      <c r="A60" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B60" s="15"/>
+      <c r="A60" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>224</v>
+      </c>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
       <c r="E60" s="36"/>
@@ -4865,201 +4799,201 @@
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
     </row>
-    <row r="61" spans="1:16" ht="14.25">
-      <c r="A61" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-    </row>
-    <row r="62" spans="1:16" ht="14.25">
-      <c r="A62" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
+    <row r="62" spans="1:16">
+      <c r="B62" s="35"/>
+    </row>
+    <row r="63" spans="1:16" ht="11.25" customHeight="1">
+      <c r="A63" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="K63" s="35"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="B64" s="35"/>
-    </row>
-    <row r="65" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A65" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="K65" s="35"/>
+      <c r="A64" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
+      <c r="A66" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="13" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>20</v>
+      <c r="A68" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H68" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I68" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J68" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K68" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L68" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M68" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N68" s="33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F70" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G70" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H70" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I70" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J70" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="K70" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="L70" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="M70" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="N70" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" s="32"/>
-      <c r="B71" s="33" t="s">
+      <c r="A69" s="32"/>
+      <c r="B69" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C69" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D69" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E71" s="33" t="s">
+      <c r="E69" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="F71" s="33" t="s">
+      <c r="F69" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="G71" s="33" t="s">
+      <c r="G69" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H71" s="33" t="s">
+      <c r="H69" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I71" s="33" t="s">
+      <c r="I69" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="J71" s="33" t="s">
+      <c r="J69" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="K71" s="33" t="s">
+      <c r="K69" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="L71" s="33" t="s">
+      <c r="L69" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="M71" s="33" t="s">
+      <c r="M69" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="N71" s="33" t="s">
+      <c r="N69" s="33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="29.25">
-      <c r="A74" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
+    <row r="72" spans="1:16" ht="29.25">
+      <c r="A72" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+    </row>
+    <row r="73" spans="1:16" ht="14.25">
+      <c r="A73" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" s="15"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+    </row>
+    <row r="74" spans="1:16" ht="14.25">
+      <c r="A74" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
     </row>
     <row r="75" spans="1:16" ht="14.25">
-      <c r="A75" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B75" s="15"/>
+      <c r="A75" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>229</v>
+      </c>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
       <c r="E75" s="36"/>
@@ -5072,297 +5006,343 @@
       <c r="L75" s="36"/>
       <c r="M75" s="36"/>
     </row>
-    <row r="76" spans="1:16" ht="14.25">
-      <c r="A76" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-    </row>
-    <row r="77" spans="1:16" ht="14.25">
-      <c r="A77" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
+    <row r="77" spans="1:16">
+      <c r="B77" s="35"/>
+    </row>
+    <row r="78" spans="1:16" ht="11.25" customHeight="1">
+      <c r="A78" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="K78" s="35"/>
     </row>
     <row r="79" spans="1:16">
-      <c r="B79" s="35"/>
-    </row>
-    <row r="80" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A80" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="K80" s="35"/>
+      <c r="A79" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
+      <c r="A81" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="13" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>20</v>
+      <c r="A83" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G83" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H83" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I83" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J83" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K83" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L83" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M83" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N83" s="33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>69</v>
+      <c r="A84" s="31"/>
+      <c r="B84" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G84" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H84" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I84" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J84" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="K84" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L84" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M84" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="N84" s="33" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D85" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G85" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H85" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I85" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J85" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="K85" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="L85" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="M85" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="N85" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="A85" s="31"/>
+      <c r="B85" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J85" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="K85" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="L85" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="M85" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N85" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="21">
       <c r="A86" s="31"/>
-      <c r="B86" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C86" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D86" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E86" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F86" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G86" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H86" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="I86" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="J86" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="K86" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="L86" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="M86" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="N86" s="33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="B86" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J86" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="K86" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L86" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="M86" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N86" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="73.5">
       <c r="A87" s="31"/>
       <c r="B87" s="19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I87" s="19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J87" s="34" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="K87" s="34" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="L87" s="34" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="M87" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N87" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="21">
+    <row r="88" spans="1:14">
       <c r="A88" s="31"/>
       <c r="B88" s="19" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J88" s="34" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="K88" s="34" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="L88" s="34" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="M88" s="19" t="s">
         <v>107</v>
       </c>
       <c r="N88" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="73.5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="31"/>
       <c r="B89" s="19" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="I89" s="19" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="J89" s="34" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="K89" s="34" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="L89" s="34" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="M89" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N89" s="19" t="s">
         <v>40</v>
@@ -5371,52 +5351,52 @@
     <row r="90" spans="1:14">
       <c r="A90" s="31"/>
       <c r="B90" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D90" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C90" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>37</v>
-      </c>
       <c r="E90" s="19" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="J90" s="34" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K90" s="34" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="L90" s="34" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="M90" s="19" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N90" s="19" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="31"/>
       <c r="B91" s="19" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="D91" s="19" t="s">
         <v>37</v>
@@ -5425,124 +5405,124 @@
         <v>38</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="J91" s="34" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="K91" s="34" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="L91" s="34" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="M91" s="19" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="N91" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" ht="21">
       <c r="A92" s="31"/>
       <c r="B92" s="19" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>38</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="H92" s="19" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="I92" s="19" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="J92" s="34" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="K92" s="34" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="L92" s="34" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="M92" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N92" s="19" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="31"/>
       <c r="B93" s="19" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>276</v>
+        <v>164</v>
       </c>
       <c r="D93" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="I93" s="19" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="J93" s="34" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="K93" s="34" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="L93" s="34" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M93" s="19" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="N93" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="21">
+    <row r="94" spans="1:14">
       <c r="A94" s="31"/>
       <c r="B94" s="19" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D94" s="19" t="s">
         <v>37</v>
@@ -5551,70 +5531,70 @@
         <v>38</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="J94" s="34" t="s">
-        <v>154</v>
+        <v>275</v>
       </c>
       <c r="K94" s="34" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="L94" s="34" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="M94" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N94" s="19" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="31"/>
       <c r="B95" s="19" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D95" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="J95" s="34" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="K95" s="34" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L95" s="34" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="M95" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N95" s="19" t="s">
         <v>40</v>
@@ -5623,10 +5603,10 @@
     <row r="96" spans="1:14">
       <c r="A96" s="31"/>
       <c r="B96" s="19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D96" s="19" t="s">
         <v>37</v>
@@ -5635,28 +5615,28 @@
         <v>38</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I96" s="19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="J96" s="34" t="s">
-        <v>280</v>
+        <v>184</v>
       </c>
       <c r="K96" s="34" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L96" s="34" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="M96" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N96" s="19" t="s">
         <v>40</v>
@@ -5665,10 +5645,10 @@
     <row r="97" spans="1:16">
       <c r="A97" s="31"/>
       <c r="B97" s="19" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D97" s="19" t="s">
         <v>37</v>
@@ -5677,28 +5657,28 @@
         <v>38</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J97" s="34" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K97" s="34" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L97" s="34" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M97" s="19" t="s">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="N97" s="19" t="s">
         <v>40</v>
@@ -5707,10 +5687,10 @@
     <row r="98" spans="1:16">
       <c r="A98" s="31"/>
       <c r="B98" s="19" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="D98" s="19" t="s">
         <v>37</v>
@@ -5719,40 +5699,40 @@
         <v>38</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="I98" s="19" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="J98" s="34" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="K98" s="34" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="L98" s="34" t="s">
-        <v>293</v>
+        <v>113</v>
       </c>
       <c r="M98" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N98" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" ht="42">
       <c r="A99" s="31"/>
       <c r="B99" s="19" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="D99" s="19" t="s">
         <v>37</v>
@@ -5761,40 +5741,40 @@
         <v>38</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="I99" s="19" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="J99" s="34" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="K99" s="34" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="L99" s="34" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="M99" s="19" t="s">
-        <v>293</v>
+        <v>102</v>
       </c>
       <c r="N99" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" ht="73.5">
       <c r="A100" s="31"/>
       <c r="B100" s="19" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>37</v>
@@ -5803,40 +5783,40 @@
         <v>38</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="J100" s="34" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="K100" s="34" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="L100" s="34" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="M100" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N100" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="42">
+    <row r="101" spans="1:16" ht="325.5">
       <c r="A101" s="31"/>
       <c r="B101" s="19" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>37</v>
@@ -5845,40 +5825,40 @@
         <v>38</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I101" s="19" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="J101" s="34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K101" s="34" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L101" s="34" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M101" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N101" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="73.5">
+    <row r="102" spans="1:16">
       <c r="A102" s="31"/>
       <c r="B102" s="19" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>37</v>
@@ -5887,40 +5867,40 @@
         <v>38</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="J102" s="34" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K102" s="34" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="L102" s="34" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="M102" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N102" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="325.5">
-      <c r="A103" s="31"/>
+    <row r="103" spans="1:16">
+      <c r="A103" s="32"/>
       <c r="B103" s="19" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>37</v>
@@ -5929,142 +5909,96 @@
         <v>38</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="J103" s="34" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="K103" s="34" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="L103" s="34" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="M103" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N103" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16">
-      <c r="A104" s="31"/>
-      <c r="B104" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F104" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="G104" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="H104" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="I104" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="J104" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="K104" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="L104" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="M104" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N104" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16">
-      <c r="A105" s="32"/>
-      <c r="B105" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C105" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F105" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="G105" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="H105" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="I105" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="J105" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="K105" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="L105" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="M105" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N105" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="29.25">
-      <c r="A108" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="14"/>
+    <row r="106" spans="1:16" ht="29.25">
+      <c r="A106" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+    </row>
+    <row r="107" spans="1:16" ht="14.25">
+      <c r="A107" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B107" s="15"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="37"/>
+      <c r="L107" s="36"/>
+      <c r="M107" s="36"/>
+    </row>
+    <row r="108" spans="1:16" ht="14.25">
+      <c r="A108" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="37"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="36"/>
     </row>
     <row r="109" spans="1:16" ht="14.25">
-      <c r="A109" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="B109" s="15"/>
+      <c r="A109" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>229</v>
+      </c>
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
       <c r="E109" s="36"/>
@@ -6077,50 +6011,38 @@
       <c r="L109" s="36"/>
       <c r="M109" s="36"/>
     </row>
-    <row r="110" spans="1:16" ht="14.25">
-      <c r="A110" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="37"/>
-      <c r="J110" s="37"/>
-      <c r="K110" s="37"/>
-      <c r="L110" s="36"/>
-      <c r="M110" s="36"/>
-    </row>
-    <row r="111" spans="1:16" ht="14.25">
-      <c r="A111" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B111" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="37"/>
-      <c r="K111" s="37"/>
-      <c r="L111" s="36"/>
-      <c r="M111" s="36"/>
-    </row>
-    <row r="113" spans="1:14">
-      <c r="B113" s="35"/>
+    <row r="111" spans="1:16">
+      <c r="B111" s="35"/>
+    </row>
+    <row r="112" spans="1:16" ht="11.25" customHeight="1">
+      <c r="A112" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="K112" s="35"/>
+    </row>
+    <row r="113" spans="1:14" ht="11.25" customHeight="1">
+      <c r="A113" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="K113" s="35"/>
     </row>
     <row r="114" spans="1:14" ht="11.25" customHeight="1">
       <c r="A114" s="15" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
@@ -6131,9 +6053,9 @@
       <c r="H114" s="15"/>
       <c r="K114" s="35"/>
     </row>
-    <row r="115" spans="1:14" ht="11.25" customHeight="1">
+    <row r="115" spans="1:14">
       <c r="A115" s="15" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
@@ -6142,182 +6064,156 @@
       <c r="F115" s="15"/>
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
-      <c r="K115" s="35"/>
-    </row>
-    <row r="116" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A116" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="K116" s="35"/>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
+      <c r="A117" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="13" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:14">
-      <c r="A119" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>20</v>
+      <c r="A119" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E119" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F119" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G119" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H119" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I119" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J119" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K119" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L119" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M119" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N119" s="33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>69</v>
+      <c r="A120" s="31"/>
+      <c r="B120" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E120" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F120" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G120" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H120" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I120" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J120" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="K120" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L120" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M120" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="N120" s="33" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B121" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C121" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D121" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E121" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F121" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G121" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H121" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I121" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J121" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="K121" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="L121" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="M121" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="N121" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
-      <c r="A122" s="31"/>
-      <c r="B122" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C122" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D122" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E122" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F122" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G122" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H122" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="I122" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="J122" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="K122" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="L122" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="M122" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="N122" s="33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
-      <c r="A123" s="32"/>
-      <c r="B123" s="19" t="s">
+      <c r="A121" s="32"/>
+      <c r="B121" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C123" s="34" t="s">
+      <c r="C121" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F121" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="G121" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I121" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J121" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="K121" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="L121" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D123" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E123" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F123" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="G123" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="H123" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I123" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="J123" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="K123" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="L123" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="M123" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N123" s="19" t="s">
+      <c r="M121" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N121" s="19" t="s">
         <v>40</v>
       </c>
     </row>

--- a/サンプルプロジェクト/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
+++ b/サンプルプロジェクト/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
@@ -1,19 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51796E3-020C-4858-8E6B-653EAF758C9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD11F78-E7EC-419E-B00D-E744108F20C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="489" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="489" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="3" r:id="rId1"/>
     <sheet name="testNormalEnd" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Excel_BuiltIn_Print_Area_1">NA()</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1">NA()</definedName>
@@ -21,7 +18,6 @@
     <definedName name="Excel_BuiltIn_Sheet_Title_1">"testSelectByCondition"</definedName>
     <definedName name="Excel_BuiltIn_Sheet_Title_1_1">"testAssertTableEquals"</definedName>
     <definedName name="Excel_BuiltIn_Sheet_Title_2">"testSelectUserGroups"</definedName>
-    <definedName name="データ型">[1]データ!$A$2:$A$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1243,22 +1239,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1268,60 +1261,59 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1353,137 +1345,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="変更履歴"/>
-      <sheetName val="目次"/>
-      <sheetName val="1. 外部インタフェース仕様"/>
-      <sheetName val="2. レコード構成"/>
-      <sheetName val="プロジェクト情報レコード"/>
-      <sheetName val="データ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>半角英字</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>半角数字</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>半角カナ</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>半角英数字</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>半角英数字記号</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>半角</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>全角ひらがな</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>全角カタカナ</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>全角</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>全角(外字含む)</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>全半角</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>全半角(外字含む)</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>符号無ゾーン10進数</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>符号付ゾーン10進数</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>符号無パック10進数</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>符号付パック10進数</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>符号無数値</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>符号付数値</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>バイナリ</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>オブジェクト</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>真偽値</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1810,45 +1671,45 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="18" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="11" customWidth="1"/>
-    <col min="5" max="6" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="8.5703125" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="18" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="10" customWidth="1"/>
+    <col min="5" max="6" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="8.5703125" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1865,50 +1726,48 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="29" style="11" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="36" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27" style="11" customWidth="1"/>
-    <col min="17" max="17" width="33" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="29" style="10" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="36" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27" style="10" customWidth="1"/>
+    <col min="17" max="17" width="33" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1"/>
@@ -1954,23 +1813,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="10" customFormat="1">
+    <row r="4" spans="1:16" s="9" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -1979,7 +1838,7 @@
       <c r="J4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1987,19 +1846,19 @@
       <c r="A5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
         <v>93</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -2008,7 +1867,7 @@
       <c r="J5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2016,19 +1875,19 @@
       <c r="A6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>116</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -2037,1347 +1896,1347 @@
       <c r="J6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="20" customFormat="1" ht="12.75">
-      <c r="A7" s="27"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+    <row r="7" spans="1:16" s="18" customFormat="1" ht="12.75">
+      <c r="A7" s="25"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:16" ht="29.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="14.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="L21" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="M21" s="33" t="s">
+      <c r="M21" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="N21" s="33" t="s">
+      <c r="N21" s="31" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="L22" s="33" t="s">
+      <c r="L22" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="M22" s="33" t="s">
+      <c r="M22" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="N22" s="33" t="s">
+      <c r="N22" s="31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="29.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="14.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="29" t="s">
+      <c r="L28" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="M28" s="29" t="s">
+      <c r="M28" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="N28" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="14.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J29" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="28" t="s">
+      <c r="K29" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="29" t="s">
+      <c r="L29" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="M29" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="11" t="s">
+      <c r="N29" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="I30" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J30" s="28" t="s">
+      <c r="J30" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="28" t="s">
+      <c r="K30" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="M30" s="29" t="s">
+      <c r="M30" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="11" t="s">
+      <c r="N30" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="I38" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="J38" s="33" t="s">
+      <c r="J38" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="K38" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="L38" s="33" t="s">
+      <c r="L38" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="M38" s="33" t="s">
+      <c r="M38" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="N38" s="33" t="s">
+      <c r="N38" s="31" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="31"/>
-      <c r="B39" s="33" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="I39" s="33" t="s">
+      <c r="I39" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="J39" s="33" t="s">
+      <c r="J39" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="K39" s="33" t="s">
+      <c r="K39" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="L39" s="33" t="s">
+      <c r="L39" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="M39" s="33" t="s">
+      <c r="M39" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="N39" s="33" t="s">
+      <c r="N39" s="31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="32"/>
-      <c r="B40" s="19" t="s">
+      <c r="A40" s="30"/>
+      <c r="B40" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="I40" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J40" s="34" t="s">
+      <c r="J40" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="K40" s="34" t="s">
+      <c r="K40" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="L40" s="34" t="s">
+      <c r="L40" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="M40" s="19" t="s">
+      <c r="M40" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="N40" s="19" t="s">
+      <c r="N40" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="29.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="J45" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="K45" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L45" s="13" t="s">
+      <c r="L45" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="M45" s="13" t="s">
+      <c r="M45" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I46" s="28" t="s">
+      <c r="I46" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="J46" s="28" t="s">
+      <c r="J46" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K46" s="28" t="s">
+      <c r="K46" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="L46" s="29" t="s">
+      <c r="L46" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="M46" s="29" t="s">
+      <c r="M46" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="N46" s="11" t="s">
+      <c r="N46" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.25">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F47" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I47" s="28" t="s">
+      <c r="I47" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J47" s="28" t="s">
+      <c r="J47" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K47" s="28" t="s">
+      <c r="K47" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="L47" s="29" t="s">
+      <c r="L47" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="M47" s="29" t="s">
+      <c r="M47" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="N47" s="11" t="s">
+      <c r="N47" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="H48" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I48" s="28" t="s">
+      <c r="I48" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J48" s="28" t="s">
+      <c r="J48" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="K48" s="28" t="s">
+      <c r="K48" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="L48" s="29" t="s">
+      <c r="L48" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="M48" s="29" t="s">
+      <c r="M48" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="N48" s="11" t="s">
+      <c r="N48" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="14.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="38" t="s">
+      <c r="G49" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H49" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I49" s="28" t="s">
+      <c r="I49" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="J49" s="28" t="s">
+      <c r="J49" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="K49" s="19" t="s">
+      <c r="K49" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="L49" s="19" t="s">
+      <c r="L49" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="M49" s="29" t="s">
+      <c r="M49" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="N49" s="11" t="s">
+      <c r="N49" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="14.25">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="37" t="s">
+      <c r="F50" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="G50" s="40" t="s">
+      <c r="G50" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H50" s="36" t="s">
+      <c r="H50" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="I50" s="28" t="s">
+      <c r="I50" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="J50" s="28" t="s">
+      <c r="J50" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="K50" s="28" t="s">
+      <c r="K50" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="L50" s="36" t="s">
+      <c r="L50" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="M50" s="29" t="s">
+      <c r="M50" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="N50" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="14.25">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F51" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="G51" s="39" t="s">
+      <c r="G51" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H51" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I51" s="28" t="s">
+      <c r="I51" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="J51" s="28" t="s">
+      <c r="J51" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="K51" s="28" t="s">
+      <c r="K51" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="L51" s="29" t="s">
+      <c r="L51" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="M51" s="29" t="s">
+      <c r="M51" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="B52" s="35"/>
+      <c r="B52" s="33"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="K53" s="35"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="K53" s="33"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="E58" s="33" t="s">
+      <c r="E58" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G58" s="33" t="s">
+      <c r="G58" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="H58" s="33" t="s">
+      <c r="H58" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I58" s="33" t="s">
+      <c r="I58" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="J58" s="33" t="s">
+      <c r="J58" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="K58" s="33" t="s">
+      <c r="K58" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="L58" s="33" t="s">
+      <c r="L58" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="M58" s="33" t="s">
+      <c r="M58" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="N58" s="33" t="s">
+      <c r="N58" s="31" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="31"/>
-      <c r="B59" s="33" t="s">
+      <c r="A59" s="29"/>
+      <c r="B59" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="33" t="s">
+      <c r="D59" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="33" t="s">
+      <c r="E59" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F59" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G59" s="33" t="s">
+      <c r="G59" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="H59" s="33" t="s">
+      <c r="H59" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="I59" s="33" t="s">
+      <c r="I59" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="J59" s="33" t="s">
+      <c r="J59" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="K59" s="33" t="s">
+      <c r="K59" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="L59" s="33" t="s">
+      <c r="L59" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="M59" s="33" t="s">
+      <c r="M59" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="N59" s="33" t="s">
+      <c r="N59" s="31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="14.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="36" t="s">
+      <c r="A60" s="29"/>
+      <c r="B60" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F60" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="G60" s="37" t="s">
+      <c r="G60" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="H60" s="19" t="s">
+      <c r="H60" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="I60" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="J60" s="28" t="s">
+      <c r="J60" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="K60" s="28" t="s">
+      <c r="K60" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="L60" s="28" t="s">
+      <c r="L60" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="M60" s="36" t="s">
+      <c r="M60" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="N60" s="29" t="s">
+      <c r="N60" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="31"/>
-      <c r="B61" s="19" t="s">
+      <c r="A61" s="29"/>
+      <c r="B61" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="H61" s="19" t="s">
+      <c r="H61" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="19" t="s">
+      <c r="I61" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J61" s="34" t="s">
+      <c r="J61" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="K61" s="34" t="s">
+      <c r="K61" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L61" s="34" t="s">
+      <c r="L61" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M61" s="19" t="s">
+      <c r="M61" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="N61" s="19" t="s">
+      <c r="N61" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="31"/>
-      <c r="B62" s="19" t="s">
+      <c r="A62" s="29"/>
+      <c r="B62" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="19" t="s">
+      <c r="F62" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="G62" s="19" t="s">
+      <c r="G62" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H62" s="19" t="s">
+      <c r="H62" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I62" s="19" t="s">
+      <c r="I62" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J62" s="34" t="s">
+      <c r="J62" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="K62" s="34" t="s">
+      <c r="K62" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="L62" s="34" t="s">
+      <c r="L62" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="M62" s="19" t="s">
+      <c r="M62" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="N62" s="19" t="s">
+      <c r="N62" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="32"/>
-      <c r="B63" s="19" t="s">
+      <c r="A63" s="30"/>
+      <c r="B63" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="G63" s="19" t="s">
+      <c r="G63" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="19" t="s">
+      <c r="H63" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I63" s="19" t="s">
+      <c r="I63" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J63" s="34" t="s">
+      <c r="J63" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="K63" s="34" t="s">
+      <c r="K63" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="L63" s="19" t="s">
+      <c r="L63" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="M63" s="19" t="s">
+      <c r="M63" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="N63" s="19" t="s">
+      <c r="N63" s="17" t="s">
         <v>60</v>
       </c>
     </row>

--- a/サンプルプロジェクト/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
+++ b/サンプルプロジェクト/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
@@ -1,19 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE260D0A-A6E7-47A1-8BA2-81773F525B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512E8A1D-3360-48DB-855D-810E8D991910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="489" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="489" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="3" r:id="rId1"/>
     <sheet name="testNormalEnd" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Excel_BuiltIn_Print_Area_1">NA()</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1">NA()</definedName>
@@ -21,7 +18,6 @@
     <definedName name="Excel_BuiltIn_Sheet_Title_1">"testSelectByCondition"</definedName>
     <definedName name="Excel_BuiltIn_Sheet_Title_1_1">"testAssertTableEquals"</definedName>
     <definedName name="Excel_BuiltIn_Sheet_Title_2">"testSelectUserGroups"</definedName>
-    <definedName name="データ型">[1]データ!$A$2:$A$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1556,22 +1552,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1581,64 +1574,63 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1662,137 +1654,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="変更履歴"/>
-      <sheetName val="目次"/>
-      <sheetName val="1. 外部インタフェース仕様"/>
-      <sheetName val="2. レコード構成"/>
-      <sheetName val="プロジェクト情報レコード"/>
-      <sheetName val="データ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>半角英字</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>半角数字</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>半角カナ</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>半角英数字</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>半角英数字記号</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>半角</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>全角ひらがな</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>全角カタカナ</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>全角</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>全角(外字含む)</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>全半角</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>全半角(外字含む)</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>符号無ゾーン10進数</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>符号付ゾーン10進数</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>符号無パック10進数</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>符号付パック10進数</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>符号無数値</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>符号付数値</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>バイナリ</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>オブジェクト</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>真偽値</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2119,1616 +1980,1616 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="18" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="11" customWidth="1"/>
-    <col min="5" max="6" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="8.5703125" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="18" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="10" customWidth="1"/>
+    <col min="5" max="6" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="8.5703125" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="14.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:13" ht="14.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="14.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" ht="14.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13" ht="14.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:13" ht="14.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" ht="14.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:13" ht="14.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" ht="14.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="14.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:13" ht="14.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13" ht="14.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="14.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:13" ht="14.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="1:13" ht="14.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" ht="14.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:13" ht="14.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="1:13" ht="14.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
     </row>
     <row r="21" spans="1:13" ht="14.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
     </row>
     <row r="22" spans="1:13" ht="14.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23" spans="1:13" ht="14.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="1:13" ht="14.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
     </row>
     <row r="25" spans="1:13" ht="14.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:13" ht="14.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27" spans="1:13" ht="14.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" ht="14.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="L31" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M31" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="28" t="s">
+      <c r="I32" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J32" s="28" t="s">
+      <c r="J32" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="K32" s="28" t="s">
+      <c r="K32" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="L32" s="29" t="s">
+      <c r="L32" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M32" s="29" t="s">
+      <c r="M32" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="29" t="s">
+      <c r="H33" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="28" t="s">
+      <c r="I33" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="J33" s="28" t="s">
+      <c r="J33" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="K33" s="28" t="s">
+      <c r="K33" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="L33" s="29" t="s">
+      <c r="L33" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="M33" s="29" t="s">
+      <c r="M33" s="27" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="J34" s="28" t="s">
+      <c r="J34" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="K34" s="28" t="s">
+      <c r="K34" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="L34" s="29" t="s">
+      <c r="L34" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M34" s="29" t="s">
+      <c r="M34" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="H35" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="28" t="s">
+      <c r="I35" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="J35" s="28" t="s">
+      <c r="J35" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="K35" s="28" t="s">
+      <c r="K35" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="L35" s="29" t="s">
+      <c r="L35" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M35" s="29" t="s">
+      <c r="M35" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="29" t="s">
+      <c r="H36" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I36" s="28" t="s">
+      <c r="I36" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="J36" s="28" t="s">
+      <c r="J36" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="K36" s="28" t="s">
+      <c r="K36" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="L36" s="29" t="s">
+      <c r="L36" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M36" s="29" t="s">
+      <c r="M36" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="28" t="s">
+      <c r="I37" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="J37" s="28" t="s">
+      <c r="J37" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="K37" s="28" t="s">
+      <c r="K37" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="L37" s="29" t="s">
+      <c r="L37" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M37" s="29" t="s">
+      <c r="M37" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F38" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="H38" s="29" t="s">
+      <c r="H38" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="28" t="s">
+      <c r="I38" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="J38" s="28" t="s">
+      <c r="J38" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="K38" s="28" t="s">
+      <c r="K38" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="L38" s="29" t="s">
+      <c r="L38" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M38" s="29" t="s">
+      <c r="M38" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="I39" s="28" t="s">
+      <c r="I39" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="J39" s="28" t="s">
+      <c r="J39" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="K39" s="28" t="s">
+      <c r="K39" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="L39" s="29" t="s">
+      <c r="L39" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M39" s="29" t="s">
+      <c r="M39" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="H40" s="29" t="s">
+      <c r="H40" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="I40" s="28" t="s">
+      <c r="I40" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="J40" s="28" t="s">
+      <c r="J40" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="K40" s="28" t="s">
+      <c r="K40" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="L40" s="29" t="s">
+      <c r="L40" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M40" s="29" t="s">
+      <c r="M40" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="29" t="s">
+      <c r="H41" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I41" s="28" t="s">
+      <c r="I41" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J41" s="28" t="s">
+      <c r="J41" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K41" s="28" t="s">
+      <c r="K41" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="L41" s="29" t="s">
+      <c r="L41" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="M41" s="29" t="s">
+      <c r="M41" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.25">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="I42" s="28" t="s">
+      <c r="I42" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="J42" s="28" t="s">
+      <c r="J42" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="K42" s="28" t="s">
+      <c r="K42" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="L42" s="29" t="s">
+      <c r="L42" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M42" s="29" t="s">
+      <c r="M42" s="27" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="29" t="s">
+      <c r="G43" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="H43" s="29" t="s">
+      <c r="H43" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="I43" s="28" t="s">
+      <c r="I43" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="J43" s="28" t="s">
+      <c r="J43" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="K43" s="28" t="s">
+      <c r="K43" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="L43" s="29" t="s">
+      <c r="L43" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M43" s="29" t="s">
+      <c r="M43" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="H44" s="29" t="s">
+      <c r="H44" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="I44" s="28" t="s">
+      <c r="I44" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="J44" s="28" t="s">
+      <c r="J44" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="K44" s="28" t="s">
+      <c r="K44" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="L44" s="29" t="s">
+      <c r="L44" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M44" s="29" t="s">
+      <c r="M44" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="14.25">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="H45" s="29" t="s">
+      <c r="H45" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="I45" s="28" t="s">
+      <c r="I45" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="J45" s="28" t="s">
+      <c r="J45" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="K45" s="28" t="s">
+      <c r="K45" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="L45" s="29" t="s">
+      <c r="L45" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M45" s="29" t="s">
+      <c r="M45" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="I46" s="28" t="s">
+      <c r="I46" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="J46" s="28" t="s">
+      <c r="J46" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="K46" s="28" t="s">
+      <c r="K46" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="L46" s="29" t="s">
+      <c r="L46" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M46" s="29" t="s">
+      <c r="M46" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F47" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="I47" s="28" t="s">
+      <c r="I47" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="J47" s="28" t="s">
+      <c r="J47" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="K47" s="28" t="s">
+      <c r="K47" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="L47" s="29" t="s">
+      <c r="L47" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M47" s="29" t="s">
+      <c r="M47" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="14.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="H48" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="I48" s="28" t="s">
+      <c r="I48" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="28" t="s">
+      <c r="J48" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="K48" s="28" t="s">
+      <c r="K48" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="L48" s="29" t="s">
+      <c r="L48" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M48" s="29" t="s">
+      <c r="M48" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="14.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G49" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H49" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="I49" s="28" t="s">
+      <c r="I49" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="J49" s="28" t="s">
+      <c r="J49" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="K49" s="28" t="s">
+      <c r="K49" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="L49" s="29" t="s">
+      <c r="L49" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M49" s="29" t="s">
+      <c r="M49" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="14.25">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="F50" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G50" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="I50" s="28" t="s">
+      <c r="I50" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="J50" s="28" t="s">
+      <c r="J50" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="K50" s="28" t="s">
+      <c r="K50" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="L50" s="28" t="s">
+      <c r="L50" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="M50" s="29" t="s">
+      <c r="M50" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="14.25">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F51" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H51" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="I51" s="28" t="s">
+      <c r="I51" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="J51" s="28" t="s">
+      <c r="J51" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="K51" s="28" t="s">
+      <c r="K51" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="L51" s="29" t="s">
+      <c r="L51" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M51" s="29" t="s">
+      <c r="M51" s="27" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="14.25">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="F52" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="G52" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H52" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I52" s="28" t="s">
+      <c r="I52" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="J52" s="28" t="s">
+      <c r="J52" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="K52" s="28" t="s">
+      <c r="K52" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="L52" s="29" t="s">
+      <c r="L52" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M52" s="29" t="s">
+      <c r="M52" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="14.25">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="I53" s="28" t="s">
+      <c r="I53" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="J53" s="28" t="s">
+      <c r="J53" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="K53" s="28" t="s">
+      <c r="K53" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="L53" s="29" t="s">
+      <c r="L53" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M53" s="29" t="s">
+      <c r="M53" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="14.25">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="H54" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="I54" s="28" t="s">
+      <c r="I54" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="J54" s="28" t="s">
+      <c r="J54" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="K54" s="28" t="s">
+      <c r="K54" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="L54" s="29" t="s">
+      <c r="L54" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M54" s="29" t="s">
+      <c r="M54" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="14.25">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="H55" s="29" t="s">
+      <c r="H55" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="I55" s="28" t="s">
+      <c r="I55" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="J55" s="28" t="s">
+      <c r="J55" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="K55" s="28" t="s">
+      <c r="K55" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="L55" s="29" t="s">
+      <c r="L55" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M55" s="29" t="s">
+      <c r="M55" s="27" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3745,48 +3606,48 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="29" style="11" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="36" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27" style="11" customWidth="1"/>
-    <col min="17" max="17" width="33" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="29" style="10" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="36" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27" style="10" customWidth="1"/>
+    <col min="17" max="17" width="33" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1"/>
@@ -3832,23 +3693,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="10" customFormat="1">
+    <row r="4" spans="1:16" s="9" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -3857,7 +3718,7 @@
       <c r="J4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3865,19 +3726,19 @@
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -3886,7 +3747,7 @@
       <c r="J5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3894,19 +3755,19 @@
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -3915,7 +3776,7 @@
       <c r="J6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3923,19 +3784,19 @@
       <c r="A7" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>81</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>81</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -3944,27 +3805,27 @@
       <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="10" customFormat="1" ht="52.5">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="52.5">
       <c r="A8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>289</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -3973,7 +3834,7 @@
       <c r="J8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3981,19 +3842,19 @@
       <c r="A9" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>95</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>230</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>230</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -4002,2218 +3863,2218 @@
       <c r="J9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" ht="12.75">
-      <c r="A10" s="27"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+    <row r="10" spans="1:16" s="18" customFormat="1" ht="12.75">
+      <c r="A10" s="25"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16" ht="29.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" ht="14.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:16" ht="14.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="14.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="33" t="s">
+      <c r="L22" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="33" t="s">
+      <c r="M22" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="33" t="s">
+      <c r="N22" s="31" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="K23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="L23" s="33" t="s">
+      <c r="L23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="33" t="s">
+      <c r="M23" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="N23" s="33" t="s">
+      <c r="N23" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="32"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="L24" s="34" t="s">
+      <c r="L24" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="29.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="14.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:16" ht="14.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:16" ht="14.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="33" t="s">
+      <c r="I37" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="33" t="s">
+      <c r="J37" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K37" s="33" t="s">
+      <c r="K37" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L37" s="33" t="s">
+      <c r="L37" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M37" s="33" t="s">
+      <c r="M37" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="N37" s="33" t="s">
+      <c r="N37" s="31" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="31"/>
-      <c r="B38" s="33" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="I38" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="J38" s="33" t="s">
+      <c r="J38" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="K38" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="L38" s="33" t="s">
+      <c r="L38" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="M38" s="33" t="s">
+      <c r="M38" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="N38" s="33" t="s">
+      <c r="N38" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="32"/>
-      <c r="B39" s="19" t="s">
+      <c r="A39" s="30"/>
+      <c r="B39" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="I39" s="19" t="s">
+      <c r="I39" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="J39" s="34" t="s">
+      <c r="J39" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="K39" s="34" t="s">
+      <c r="K39" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="L39" s="34" t="s">
+      <c r="L39" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="M39" s="19" t="s">
+      <c r="M39" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N39" s="19" t="s">
+      <c r="N39" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="29.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
     </row>
     <row r="42" spans="1:16" ht="14.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
     </row>
     <row r="43" spans="1:16" ht="14.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
     </row>
     <row r="44" spans="1:16" ht="14.25">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="B46" s="35"/>
+      <c r="B46" s="33"/>
     </row>
     <row r="47" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="K47" s="35"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="K47" s="33"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G52" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="33" t="s">
+      <c r="H52" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I52" s="33" t="s">
+      <c r="I52" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J52" s="33" t="s">
+      <c r="J52" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K52" s="33" t="s">
+      <c r="K52" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L52" s="33" t="s">
+      <c r="L52" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M52" s="33" t="s">
+      <c r="M52" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="N52" s="33" t="s">
+      <c r="N52" s="31" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="32"/>
-      <c r="B53" s="33" t="s">
+      <c r="A53" s="30"/>
+      <c r="B53" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H53" s="33" t="s">
+      <c r="H53" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I53" s="33" t="s">
+      <c r="I53" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="J53" s="33" t="s">
+      <c r="J53" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="K53" s="33" t="s">
+      <c r="K53" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="L53" s="33" t="s">
+      <c r="L53" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="M53" s="33" t="s">
+      <c r="M53" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="N53" s="33" t="s">
+      <c r="N53" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="29.25">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
     </row>
     <row r="58" spans="1:16" ht="14.25">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
     </row>
     <row r="59" spans="1:16" ht="14.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
     </row>
     <row r="60" spans="1:16" ht="14.25">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="B62" s="35"/>
+      <c r="B62" s="33"/>
     </row>
     <row r="63" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="K63" s="35"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="K63" s="33"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="33" t="s">
+      <c r="D68" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E68" s="33" t="s">
+      <c r="E68" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F68" s="33" t="s">
+      <c r="F68" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="33" t="s">
+      <c r="G68" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H68" s="33" t="s">
+      <c r="H68" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I68" s="33" t="s">
+      <c r="I68" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J68" s="33" t="s">
+      <c r="J68" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K68" s="33" t="s">
+      <c r="K68" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L68" s="33" t="s">
+      <c r="L68" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M68" s="33" t="s">
+      <c r="M68" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="N68" s="33" t="s">
+      <c r="N68" s="31" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="32"/>
-      <c r="B69" s="33" t="s">
+      <c r="A69" s="30"/>
+      <c r="B69" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="33" t="s">
+      <c r="D69" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E69" s="33" t="s">
+      <c r="E69" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F69" s="33" t="s">
+      <c r="F69" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H69" s="33" t="s">
+      <c r="H69" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I69" s="33" t="s">
+      <c r="I69" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="J69" s="33" t="s">
+      <c r="J69" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="K69" s="33" t="s">
+      <c r="K69" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="L69" s="33" t="s">
+      <c r="L69" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="M69" s="33" t="s">
+      <c r="M69" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="N69" s="33" t="s">
+      <c r="N69" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="29.25">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
     </row>
     <row r="73" spans="1:16" ht="14.25">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
     </row>
     <row r="74" spans="1:16" ht="14.25">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="36"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
     </row>
     <row r="75" spans="1:16" ht="14.25">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
     </row>
     <row r="77" spans="1:16">
-      <c r="B77" s="35"/>
+      <c r="B77" s="33"/>
     </row>
     <row r="78" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="K78" s="35"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="K78" s="33"/>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="33" t="s">
+      <c r="B83" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D83" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E83" s="33" t="s">
+      <c r="E83" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F83" s="33" t="s">
+      <c r="F83" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G83" s="33" t="s">
+      <c r="G83" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H83" s="33" t="s">
+      <c r="H83" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I83" s="33" t="s">
+      <c r="I83" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J83" s="33" t="s">
+      <c r="J83" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K83" s="33" t="s">
+      <c r="K83" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L83" s="33" t="s">
+      <c r="L83" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M83" s="33" t="s">
+      <c r="M83" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="N83" s="33" t="s">
+      <c r="N83" s="31" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="31"/>
-      <c r="B84" s="33" t="s">
+      <c r="A84" s="29"/>
+      <c r="B84" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D84" s="33" t="s">
+      <c r="D84" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E84" s="33" t="s">
+      <c r="E84" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F84" s="33" t="s">
+      <c r="F84" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H84" s="33" t="s">
+      <c r="H84" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I84" s="33" t="s">
+      <c r="I84" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="J84" s="33" t="s">
+      <c r="J84" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="K84" s="33" t="s">
+      <c r="K84" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="L84" s="33" t="s">
+      <c r="L84" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="M84" s="33" t="s">
+      <c r="M84" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="N84" s="33" t="s">
+      <c r="N84" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="31"/>
-      <c r="B85" s="19" t="s">
+      <c r="A85" s="29"/>
+      <c r="B85" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C85" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F85" s="19" t="s">
+      <c r="F85" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="G85" s="19" t="s">
+      <c r="G85" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H85" s="19" t="s">
+      <c r="H85" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I85" s="19" t="s">
+      <c r="I85" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J85" s="34" t="s">
+      <c r="J85" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="K85" s="34" t="s">
+      <c r="K85" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="L85" s="34" t="s">
+      <c r="L85" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="M85" s="19" t="s">
+      <c r="M85" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N85" s="19" t="s">
+      <c r="N85" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="21">
-      <c r="A86" s="31"/>
-      <c r="B86" s="19" t="s">
+      <c r="A86" s="29"/>
+      <c r="B86" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C86" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="19" t="s">
+      <c r="F86" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="G86" s="19" t="s">
+      <c r="G86" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H86" s="19" t="s">
+      <c r="H86" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I86" s="19" t="s">
+      <c r="I86" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J86" s="34" t="s">
+      <c r="J86" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="K86" s="34" t="s">
+      <c r="K86" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="L86" s="34" t="s">
+      <c r="L86" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="M86" s="19" t="s">
+      <c r="M86" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N86" s="19" t="s">
+      <c r="N86" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="73.5">
-      <c r="A87" s="31"/>
-      <c r="B87" s="19" t="s">
+      <c r="A87" s="29"/>
+      <c r="B87" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="C87" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F87" s="19" t="s">
+      <c r="F87" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="G87" s="19" t="s">
+      <c r="G87" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H87" s="19" t="s">
+      <c r="H87" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I87" s="19" t="s">
+      <c r="I87" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J87" s="34" t="s">
+      <c r="J87" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="K87" s="34" t="s">
+      <c r="K87" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="L87" s="34" t="s">
+      <c r="L87" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="M87" s="19" t="s">
+      <c r="M87" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N87" s="19" t="s">
+      <c r="N87" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="31"/>
-      <c r="B88" s="19" t="s">
+      <c r="A88" s="29"/>
+      <c r="B88" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="C88" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D88" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F88" s="19" t="s">
+      <c r="F88" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="G88" s="19" t="s">
+      <c r="G88" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H88" s="19" t="s">
+      <c r="H88" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I88" s="19" t="s">
+      <c r="I88" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J88" s="34" t="s">
+      <c r="J88" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K88" s="34" t="s">
+      <c r="K88" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="L88" s="34" t="s">
+      <c r="L88" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="M88" s="19" t="s">
+      <c r="M88" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="N88" s="19" t="s">
+      <c r="N88" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="31"/>
-      <c r="B89" s="19" t="s">
+      <c r="A89" s="29"/>
+      <c r="B89" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="34" t="s">
+      <c r="C89" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F89" s="19" t="s">
+      <c r="F89" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="G89" s="19" t="s">
+      <c r="G89" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H89" s="19" t="s">
+      <c r="H89" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="I89" s="19" t="s">
+      <c r="I89" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J89" s="34" t="s">
+      <c r="J89" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="K89" s="34" t="s">
+      <c r="K89" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="L89" s="34" t="s">
+      <c r="L89" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="M89" s="19" t="s">
+      <c r="M89" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N89" s="19" t="s">
+      <c r="N89" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="31"/>
-      <c r="B90" s="19" t="s">
+      <c r="A90" s="29"/>
+      <c r="B90" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="C90" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F90" s="19" t="s">
+      <c r="F90" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G90" s="19" t="s">
+      <c r="G90" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="H90" s="19" t="s">
+      <c r="H90" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="I90" s="19" t="s">
+      <c r="I90" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="J90" s="34" t="s">
+      <c r="J90" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="K90" s="34" t="s">
+      <c r="K90" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="L90" s="34" t="s">
+      <c r="L90" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="M90" s="19" t="s">
+      <c r="M90" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N90" s="19" t="s">
+      <c r="N90" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="31"/>
-      <c r="B91" s="19" t="s">
+      <c r="A91" s="29"/>
+      <c r="B91" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C91" s="34" t="s">
+      <c r="C91" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F91" s="19" t="s">
+      <c r="F91" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G91" s="19" t="s">
+      <c r="G91" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H91" s="19" t="s">
+      <c r="H91" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I91" s="19" t="s">
+      <c r="I91" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J91" s="34" t="s">
+      <c r="J91" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="K91" s="34" t="s">
+      <c r="K91" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="L91" s="34" t="s">
+      <c r="L91" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="M91" s="19" t="s">
+      <c r="M91" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="N91" s="19" t="s">
+      <c r="N91" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="21">
-      <c r="A92" s="31"/>
-      <c r="B92" s="19" t="s">
+      <c r="A92" s="29"/>
+      <c r="B92" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="34" t="s">
+      <c r="C92" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F92" s="19" t="s">
+      <c r="F92" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G92" s="19" t="s">
+      <c r="G92" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H92" s="19" t="s">
+      <c r="H92" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="I92" s="19" t="s">
+      <c r="I92" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="J92" s="34" t="s">
+      <c r="J92" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="K92" s="34" t="s">
+      <c r="K92" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="L92" s="34" t="s">
+      <c r="L92" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="M92" s="19" t="s">
+      <c r="M92" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N92" s="19" t="s">
+      <c r="N92" s="17" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="31"/>
-      <c r="B93" s="19" t="s">
+      <c r="A93" s="29"/>
+      <c r="B93" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C93" s="34" t="s">
+      <c r="C93" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F93" s="19" t="s">
+      <c r="F93" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G93" s="19" t="s">
+      <c r="G93" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H93" s="19" t="s">
+      <c r="H93" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="I93" s="19" t="s">
+      <c r="I93" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="J93" s="34" t="s">
+      <c r="J93" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="K93" s="34" t="s">
+      <c r="K93" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="L93" s="34" t="s">
+      <c r="L93" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="M93" s="19" t="s">
+      <c r="M93" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N93" s="19" t="s">
+      <c r="N93" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="31"/>
-      <c r="B94" s="19" t="s">
+      <c r="A94" s="29"/>
+      <c r="B94" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C94" s="34" t="s">
+      <c r="C94" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D94" s="19" t="s">
+      <c r="D94" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F94" s="19" t="s">
+      <c r="F94" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G94" s="19" t="s">
+      <c r="G94" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H94" s="19" t="s">
+      <c r="H94" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="I94" s="19" t="s">
+      <c r="I94" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="J94" s="34" t="s">
+      <c r="J94" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="K94" s="34" t="s">
+      <c r="K94" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="L94" s="34" t="s">
+      <c r="L94" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="M94" s="19" t="s">
+      <c r="M94" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N94" s="19" t="s">
+      <c r="N94" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="31"/>
-      <c r="B95" s="19" t="s">
+      <c r="A95" s="29"/>
+      <c r="B95" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C95" s="34" t="s">
+      <c r="C95" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F95" s="19" t="s">
+      <c r="F95" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G95" s="19" t="s">
+      <c r="G95" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H95" s="19" t="s">
+      <c r="H95" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="I95" s="19" t="s">
+      <c r="I95" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="J95" s="34" t="s">
+      <c r="J95" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="K95" s="34" t="s">
+      <c r="K95" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="L95" s="34" t="s">
+      <c r="L95" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="M95" s="19" t="s">
+      <c r="M95" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N95" s="19" t="s">
+      <c r="N95" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="31"/>
-      <c r="B96" s="19" t="s">
+      <c r="A96" s="29"/>
+      <c r="B96" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="C96" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F96" s="19" t="s">
+      <c r="F96" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G96" s="19" t="s">
+      <c r="G96" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H96" s="19" t="s">
+      <c r="H96" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="I96" s="19" t="s">
+      <c r="I96" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="J96" s="34" t="s">
+      <c r="J96" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="K96" s="34" t="s">
+      <c r="K96" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="L96" s="34" t="s">
+      <c r="L96" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="M96" s="19" t="s">
+      <c r="M96" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N96" s="19" t="s">
+      <c r="N96" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="31"/>
-      <c r="B97" s="19" t="s">
+      <c r="A97" s="29"/>
+      <c r="B97" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="C97" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="E97" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F97" s="19" t="s">
+      <c r="F97" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G97" s="19" t="s">
+      <c r="G97" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H97" s="19" t="s">
+      <c r="H97" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="I97" s="19" t="s">
+      <c r="I97" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="J97" s="34" t="s">
+      <c r="J97" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="K97" s="34" t="s">
+      <c r="K97" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="L97" s="34" t="s">
+      <c r="L97" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="M97" s="19" t="s">
+      <c r="M97" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="N97" s="19" t="s">
+      <c r="N97" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:16">
-      <c r="A98" s="31"/>
-      <c r="B98" s="19" t="s">
+      <c r="A98" s="29"/>
+      <c r="B98" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="C98" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="D98" s="19" t="s">
+      <c r="D98" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E98" s="19" t="s">
+      <c r="E98" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F98" s="19" t="s">
+      <c r="F98" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G98" s="19" t="s">
+      <c r="G98" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H98" s="19" t="s">
+      <c r="H98" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I98" s="19" t="s">
+      <c r="I98" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J98" s="34" t="s">
+      <c r="J98" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="K98" s="34" t="s">
+      <c r="K98" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="L98" s="34" t="s">
+      <c r="L98" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="M98" s="19" t="s">
+      <c r="M98" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N98" s="19" t="s">
+      <c r="N98" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="42">
-      <c r="A99" s="31"/>
-      <c r="B99" s="19" t="s">
+      <c r="A99" s="29"/>
+      <c r="B99" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C99" s="34" t="s">
+      <c r="C99" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E99" s="19" t="s">
+      <c r="E99" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F99" s="19" t="s">
+      <c r="F99" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G99" s="19" t="s">
+      <c r="G99" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H99" s="19" t="s">
+      <c r="H99" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="I99" s="19" t="s">
+      <c r="I99" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J99" s="34" t="s">
+      <c r="J99" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="K99" s="34" t="s">
+      <c r="K99" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="L99" s="34" t="s">
+      <c r="L99" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="M99" s="19" t="s">
+      <c r="M99" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N99" s="19" t="s">
+      <c r="N99" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="73.5">
-      <c r="A100" s="31"/>
-      <c r="B100" s="19" t="s">
+      <c r="A100" s="29"/>
+      <c r="B100" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C100" s="34" t="s">
+      <c r="C100" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E100" s="19" t="s">
+      <c r="E100" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F100" s="19" t="s">
+      <c r="F100" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G100" s="19" t="s">
+      <c r="G100" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H100" s="19" t="s">
+      <c r="H100" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I100" s="19" t="s">
+      <c r="I100" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="J100" s="34" t="s">
+      <c r="J100" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="K100" s="34" t="s">
+      <c r="K100" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="L100" s="34" t="s">
+      <c r="L100" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="M100" s="19" t="s">
+      <c r="M100" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N100" s="19" t="s">
+      <c r="N100" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="325.5">
-      <c r="A101" s="31"/>
-      <c r="B101" s="19" t="s">
+      <c r="A101" s="29"/>
+      <c r="B101" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C101" s="34" t="s">
+      <c r="C101" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="E101" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F101" s="19" t="s">
+      <c r="F101" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G101" s="19" t="s">
+      <c r="G101" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H101" s="19" t="s">
+      <c r="H101" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="I101" s="19" t="s">
+      <c r="I101" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="J101" s="34" t="s">
+      <c r="J101" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="K101" s="34" t="s">
+      <c r="K101" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="L101" s="34" t="s">
+      <c r="L101" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="M101" s="19" t="s">
+      <c r="M101" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N101" s="19" t="s">
+      <c r="N101" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:16">
-      <c r="A102" s="31"/>
-      <c r="B102" s="19" t="s">
+      <c r="A102" s="29"/>
+      <c r="B102" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="34" t="s">
+      <c r="C102" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E102" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F102" s="19" t="s">
+      <c r="F102" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G102" s="19" t="s">
+      <c r="G102" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="H102" s="19" t="s">
+      <c r="H102" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="I102" s="19" t="s">
+      <c r="I102" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="J102" s="34" t="s">
+      <c r="J102" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="K102" s="34" t="s">
+      <c r="K102" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="L102" s="34" t="s">
+      <c r="L102" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="M102" s="19" t="s">
+      <c r="M102" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N102" s="19" t="s">
+      <c r="N102" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:16">
-      <c r="A103" s="32"/>
-      <c r="B103" s="19" t="s">
+      <c r="A103" s="30"/>
+      <c r="B103" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C103" s="34" t="s">
+      <c r="C103" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="D103" s="19" t="s">
+      <c r="D103" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F103" s="19" t="s">
+      <c r="F103" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="G103" s="19" t="s">
+      <c r="G103" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H103" s="19" t="s">
+      <c r="H103" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="I103" s="19" t="s">
+      <c r="I103" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="J103" s="34" t="s">
+      <c r="J103" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="K103" s="34" t="s">
+      <c r="K103" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="L103" s="34" t="s">
+      <c r="L103" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="M103" s="19" t="s">
+      <c r="M103" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N103" s="19" t="s">
+      <c r="N103" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="29.25">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
-      <c r="N106" s="14"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="14"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="13"/>
     </row>
     <row r="107" spans="1:16" ht="14.25">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B107" s="15"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="37"/>
-      <c r="J107" s="37"/>
-      <c r="K107" s="37"/>
-      <c r="L107" s="36"/>
-      <c r="M107" s="36"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="35"/>
+      <c r="L107" s="34"/>
+      <c r="M107" s="34"/>
     </row>
     <row r="108" spans="1:16" ht="14.25">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="37"/>
-      <c r="K108" s="37"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="36"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="35"/>
+      <c r="K108" s="35"/>
+      <c r="L108" s="34"/>
+      <c r="M108" s="34"/>
     </row>
     <row r="109" spans="1:16" ht="14.25">
-      <c r="A109" s="38" t="s">
+      <c r="A109" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="37"/>
-      <c r="J109" s="37"/>
-      <c r="K109" s="37"/>
-      <c r="L109" s="36"/>
-      <c r="M109" s="36"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="35"/>
+      <c r="J109" s="35"/>
+      <c r="K109" s="35"/>
+      <c r="L109" s="34"/>
+      <c r="M109" s="34"/>
     </row>
     <row r="111" spans="1:16">
-      <c r="B111" s="35"/>
+      <c r="B111" s="33"/>
     </row>
     <row r="112" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="K112" s="35"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="K112" s="33"/>
     </row>
     <row r="113" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="K113" s="35"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="K113" s="33"/>
     </row>
     <row r="114" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="K114" s="35"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="K114" s="33"/>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B116" s="19" t="s">
+      <c r="B116" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B117" s="19" t="s">
+      <c r="B117" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:14">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B118" s="19" t="s">
+      <c r="B118" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:14">
-      <c r="A119" s="30" t="s">
+      <c r="A119" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B119" s="33" t="s">
+      <c r="B119" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C119" s="33" t="s">
+      <c r="C119" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D119" s="33" t="s">
+      <c r="D119" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E119" s="33" t="s">
+      <c r="E119" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F119" s="33" t="s">
+      <c r="F119" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G119" s="33" t="s">
+      <c r="G119" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H119" s="33" t="s">
+      <c r="H119" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I119" s="33" t="s">
+      <c r="I119" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J119" s="33" t="s">
+      <c r="J119" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K119" s="33" t="s">
+      <c r="K119" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L119" s="33" t="s">
+      <c r="L119" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M119" s="33" t="s">
+      <c r="M119" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="N119" s="33" t="s">
+      <c r="N119" s="31" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="31"/>
-      <c r="B120" s="33" t="s">
+      <c r="A120" s="29"/>
+      <c r="B120" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C120" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D120" s="33" t="s">
+      <c r="D120" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E120" s="33" t="s">
+      <c r="E120" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F120" s="33" t="s">
+      <c r="F120" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G120" s="33" t="s">
+      <c r="G120" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H120" s="33" t="s">
+      <c r="H120" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I120" s="33" t="s">
+      <c r="I120" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="J120" s="33" t="s">
+      <c r="J120" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="K120" s="33" t="s">
+      <c r="K120" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="L120" s="33" t="s">
+      <c r="L120" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="M120" s="33" t="s">
+      <c r="M120" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="N120" s="33" t="s">
+      <c r="N120" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="32"/>
-      <c r="B121" s="19" t="s">
+      <c r="A121" s="30"/>
+      <c r="B121" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C121" s="34" t="s">
+      <c r="C121" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D121" s="19" t="s">
+      <c r="D121" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E121" s="19" t="s">
+      <c r="E121" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F121" s="19" t="s">
+      <c r="F121" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="G121" s="19" t="s">
+      <c r="G121" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="H121" s="19" t="s">
+      <c r="H121" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I121" s="19" t="s">
+      <c r="I121" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J121" s="34" t="s">
+      <c r="J121" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="K121" s="34" t="s">
+      <c r="K121" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L121" s="34" t="s">
+      <c r="L121" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="M121" s="19" t="s">
+      <c r="M121" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N121" s="19" t="s">
+      <c r="N121" s="17" t="s">
         <v>40</v>
       </c>
     </row>
